--- a/templates/AutomationOrg/RSTK-9619-Derived Component Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RSTK-9619-Derived Component Receipt Reversal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784EA94-7DDA-4C45-B3EA-F87EDA0F99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC02428-4616-46C4-AACA-7770620DD887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,26 +564,6 @@
       </c>
       <c r="G2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
